--- a/data/trans_bre/P29A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Estudios-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 0,66</t>
+          <t>-7,57; 0,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-40,32; -22,73</t>
+          <t>-40,25; -23,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 0,65</t>
+          <t>-7,72; 0,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,68; -26,39</t>
+          <t>-44,47; -27,19</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,46; -0,58</t>
+          <t>-3,57; -0,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 6,71</t>
+          <t>-15,46; 5,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -0,58</t>
+          <t>-3,61; -0,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 9,39</t>
+          <t>-19,01; 7,3</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,08</t>
+          <t>-2,76; 1,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,46; -3,37</t>
+          <t>-15,57; -3,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,09</t>
+          <t>-2,8; 1,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,17; -4,33</t>
+          <t>-18,01; -4,8</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; -0,52</t>
+          <t>-2,81; -0,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,21; -0,74</t>
+          <t>-16,24; -2,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -0,52</t>
+          <t>-2,84; -0,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,31; -0,85</t>
+          <t>-19,44; -2,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P29A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Estudios-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 0,63</t>
+          <t>-7,29; 0,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 0,62</t>
+          <t>-7,41; 0,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,64</t>
+          <t>-3,51; -0,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,61; -0,65</t>
+          <t>-3,56; -0,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 1,03</t>
+          <t>-2,67; 0,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,04</t>
+          <t>-2,7; 0,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -0,5</t>
+          <t>-2,86; -0,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,84; -0,51</t>
+          <t>-2,9; -0,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">

--- a/data/trans_bre/P29A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 0,68</t>
+          <t>-7,91; 0,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-40,25; -23,8</t>
+          <t>-40,32; -22,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 0,7</t>
+          <t>-8,04; 0,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,47; -27,19</t>
+          <t>-44,68; -26,39</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,51; -0,55</t>
+          <t>-3,46; -0,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 5,48</t>
+          <t>-15,1; 6,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,56; -0,56</t>
+          <t>-3,47; -0,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 7,3</t>
+          <t>-18,6; 9,39</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 0,94</t>
+          <t>-2,51; 1,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,57; -3,97</t>
+          <t>-15,46; -3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,95</t>
+          <t>-2,53; 1,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,01; -4,8</t>
+          <t>-18,17; -4,33</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; -0,48</t>
+          <t>-2,79; -0,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,24; -2,08</t>
+          <t>-16,21; -0,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,9; -0,48</t>
+          <t>-2,81; -0,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,44; -2,65</t>
+          <t>-19,31; -0,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P29A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Estudios-trans_bre.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-31,83</t>
+          <t>-30,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-35,7%</t>
+          <t>-34,75%</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-40,32; -22,73</t>
+          <t>-39,33; -21,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,68; -26,39</t>
+          <t>-44,24; -25,2</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,78</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,83%</t>
+          <t>2,19%</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 6,71</t>
+          <t>-17,74; 37,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 9,39</t>
+          <t>-21,92; 82,99</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,62</t>
+          <t>-9,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,53%</t>
+          <t>-11,29%</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,46; -3,37</t>
+          <t>-15,34; -3,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,17; -4,33</t>
+          <t>-17,74; -4,56</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,82</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,28%</t>
+          <t>-5,45%</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,21; -0,74</t>
+          <t>-17,64; 23,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,31; -0,85</t>
+          <t>-21,67; 39,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P29A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Estudios-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,22 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-32,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-30,74</t>
+          <t>-34,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>-32,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-34,75%</t>
+          <t>-38,62</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-74,03%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-70,57%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-71,93%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-81,16%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 0,66</t>
+          <t>-35,94; -28,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-39,33; -21,16</t>
+          <t>-38,37; -30,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 0,65</t>
+          <t>-36,82; -28,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,24; -25,2</t>
+          <t>-43,16; -34,38</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-77,97; -69,27</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-74,85; -65,88</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-76,73; -65,36</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-84,43; -76,78</t>
         </is>
       </c>
     </row>
@@ -641,22 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-28,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-28,08</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,93%</t>
+          <t>-23,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>-11,36</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-47,88%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-49,01%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-40,79%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-26,33%</t>
         </is>
       </c>
     </row>
@@ -669,22 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,46; -0,58</t>
+          <t>-32,21; -25,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 37,35</t>
+          <t>-31,57; -24,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -0,58</t>
+          <t>-26,98; -20,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 82,99</t>
+          <t>-22,37; 14,65</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-52,18; -43,05</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-53,87; -44,38</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-45,04; -36,05</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-47,39; 41,7</t>
         </is>
       </c>
     </row>
@@ -701,22 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-22,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,48</t>
+          <t>-19,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>-17,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,29%</t>
+          <t>-15,82</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-36,55%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-30,25%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-26,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-29,72%</t>
         </is>
       </c>
     </row>
@@ -729,22 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,08</t>
+          <t>-28,06; -16,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,34; -3,73</t>
+          <t>-26,62; -12,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,09</t>
+          <t>-23,99; -11,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,74; -4,56</t>
+          <t>-21,75; -11,12</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-44,56; -27,18</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-38,83; -20,09</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-33,97; -18,21</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-38,35; -21,85</t>
         </is>
       </c>
     </row>
@@ -761,22 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-30,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-30,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,61%</t>
+          <t>-26,34</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>-17,6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-55,38%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-54,16%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-46,11%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-38,52%</t>
         </is>
       </c>
     </row>
@@ -789,22 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; -0,52</t>
+          <t>-32,71; -28,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 23,95</t>
+          <t>-32,74; -28,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -0,52</t>
+          <t>-28,6; -23,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 39,15</t>
+          <t>-24,95; -3,69</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-58,35; -52,46</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-57,2; -51,12</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-49,17; -42,5</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-50,89; -9,19</t>
         </is>
       </c>
     </row>
@@ -818,10 +1017,10 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
